--- a/TP_DATA_PROG/I.a.Paramlink/lod_results_dom2.xlsx
+++ b/TP_DATA_PROG/I.a.Paramlink/lod_results_dom2.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\OneDrive\Desktop\Uni\NGS\Project\TP_DATA_PROG\I.a.Paramlink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BFFF36A4-F051-442B-A4A8-7DAC7A246974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A77A10-CF34-41F5-BE62-088B5CB19DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{21EE2EBB-D81A-4150-B172-C8AC4EE37C34}"/>
   </bookViews>
   <sheets>
     <sheet name="lod_results_dom2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>CHR</t>
   </si>
@@ -74,6 +87,12 @@
   </si>
   <si>
     <t>Zmax-1</t>
+  </si>
+  <si>
+    <t>zmax-1 (M1)</t>
+  </si>
+  <si>
+    <t>Z(max)-1</t>
   </si>
 </sst>
 </file>
@@ -617,6 +636,1176 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Lod-score</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> curve for M1</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lod_results_dom2!$U$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Z(max)-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>lod_results_dom2!$T$5:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lod_results_dom2!$U$5:$U$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6.6738</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6738</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6738</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6738</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6738</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6738</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6738</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6738</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6738</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E3A3-4B3E-9AF2-2F18DF43A1A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lod_results_dom2!$V$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="15875">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>lod_results_dom2!$T$5:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lod_results_dom2!$V$5:$V$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7.67380003495549</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.03545334536211</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3655808114669297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6610467081671398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9182543440563</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1332967870551798</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3028752535497898</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5289585224773701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E3A3-4B3E-9AF2-2F18DF43A1A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="933451216"/>
+        <c:axId val="933438736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="933451216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="51000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="933438736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="933438736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="933451216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE1F28DA-A076-601F-A64F-A092CB55F91B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -934,15 +2123,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DD0625-B0C3-46C1-BE1E-1E074B988E0C}">
-  <dimension ref="A1:AG18"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4:U18"/>
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="21" max="21" width="10.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -994,47 +2186,47 @@
       <c r="R1">
         <v>0.5</v>
       </c>
-      <c r="U1">
+      <c r="AA1">
         <v>1</v>
       </c>
-      <c r="V1">
+      <c r="AB1">
         <v>2</v>
       </c>
-      <c r="W1">
+      <c r="AC1">
         <v>3</v>
       </c>
-      <c r="X1">
+      <c r="AD1">
         <v>4</v>
       </c>
-      <c r="Y1">
+      <c r="AE1">
         <v>5</v>
       </c>
-      <c r="Z1">
+      <c r="AF1">
         <v>6</v>
       </c>
-      <c r="AA1">
+      <c r="AG1">
         <v>7</v>
       </c>
-      <c r="AB1">
+      <c r="AH1">
         <v>8</v>
       </c>
-      <c r="AC1">
+      <c r="AI1">
         <v>9</v>
       </c>
-      <c r="AD1">
+      <c r="AJ1">
         <v>10</v>
       </c>
-      <c r="AE1">
+      <c r="AK1">
         <v>11</v>
       </c>
-      <c r="AF1">
+      <c r="AL1">
         <v>12</v>
       </c>
-      <c r="AG1">
+      <c r="AM1">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1089,26 +2281,8 @@
       <c r="R2">
         <v>0</v>
       </c>
-      <c r="T2" t="s">
+      <c r="Y2" t="s">
         <v>0</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
       </c>
       <c r="AA2">
         <v>1</v>
@@ -1131,8 +2305,26 @@
       <c r="AG2">
         <v>1</v>
       </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1187,50 +2379,53 @@
       <c r="R3">
         <v>0</v>
       </c>
-      <c r="T3" t="s">
+      <c r="Y3" t="s">
         <v>1</v>
       </c>
-      <c r="U3" t="s">
+      <c r="Z3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA3" t="s">
         <v>4</v>
       </c>
-      <c r="V3" t="s">
+      <c r="AB3" t="s">
         <v>5</v>
       </c>
-      <c r="W3" t="s">
+      <c r="AC3" t="s">
         <v>6</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AD3" t="s">
         <v>7</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AE3" t="s">
         <v>8</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AF3" t="s">
         <v>9</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AG3" t="s">
         <v>10</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AH3" t="s">
         <v>11</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AI3" t="s">
         <v>12</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AJ3" t="s">
         <v>13</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AK3" t="s">
         <v>14</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AL3" t="s">
         <v>15</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AM3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1285,63 +2480,76 @@
       <c r="R4">
         <v>0</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y4" t="s">
         <v>17</v>
       </c>
-      <c r="U4">
-        <f>U5-1</f>
+      <c r="Z4">
+        <f>AA4</f>
         <v>6.67380003495549</v>
       </c>
-      <c r="V4">
-        <f>V5-1</f>
+      <c r="AA4">
+        <f>AA5-1</f>
+        <v>6.67380003495549</v>
+      </c>
+      <c r="AB4">
+        <f>AB5-1</f>
         <v>6.2474109076959499</v>
       </c>
-      <c r="W4">
-        <f t="shared" ref="W4:AG4" si="0">W5-1</f>
+      <c r="AC4">
+        <f t="shared" ref="AC4:AM4" si="0">AC5-1</f>
         <v>3.7626933775874196</v>
       </c>
-      <c r="X4">
+      <c r="AD4">
         <f t="shared" si="0"/>
         <v>7.1712191184042204</v>
       </c>
-      <c r="Y4">
+      <c r="AE4">
         <f t="shared" si="0"/>
         <v>5.0050443175702704</v>
       </c>
-      <c r="Z4">
+      <c r="AF4">
         <f t="shared" si="0"/>
         <v>3.9698724614848802</v>
       </c>
-      <c r="AA4">
+      <c r="AG4">
         <f t="shared" si="0"/>
         <v>4.7141323247819802</v>
       </c>
-      <c r="AB4">
+      <c r="AH4">
         <f t="shared" si="0"/>
         <v>4.2550743878645196</v>
       </c>
-      <c r="AC4">
+      <c r="AI4">
         <f t="shared" si="0"/>
         <v>3.2537352611212702</v>
       </c>
-      <c r="AD4">
+      <c r="AJ4">
         <f t="shared" si="0"/>
         <v>2.5643218213244099</v>
       </c>
-      <c r="AE4">
+      <c r="AK4">
         <f t="shared" si="0"/>
         <v>2.57087778275891</v>
       </c>
-      <c r="AF4">
+      <c r="AL4">
         <f t="shared" si="0"/>
         <v>3.2854538483957398</v>
       </c>
-      <c r="AG4">
+      <c r="AM4">
         <f t="shared" si="0"/>
         <v>1.3859583862679399</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1396,50 +2604,66 @@
       <c r="R5">
         <v>0</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>6.6738</v>
+      </c>
+      <c r="V5">
+        <v>7.67380003495549</v>
+      </c>
+      <c r="W5">
+        <v>-32.173267885151198</v>
+      </c>
+      <c r="Y5" t="s">
         <v>3</v>
       </c>
-      <c r="U5">
+      <c r="Z5">
+        <f>AA4</f>
+        <v>6.67380003495549</v>
+      </c>
+      <c r="AA5">
         <v>7.67380003495549</v>
       </c>
-      <c r="V5">
+      <c r="AB5">
         <v>7.2474109076959499</v>
       </c>
-      <c r="W5">
+      <c r="AC5">
         <v>4.7626933775874196</v>
       </c>
-      <c r="X5">
+      <c r="AD5">
         <v>8.1712191184042204</v>
       </c>
-      <c r="Y5">
+      <c r="AE5">
         <v>6.0050443175702704</v>
       </c>
-      <c r="Z5">
+      <c r="AF5">
         <v>4.9698724614848802</v>
       </c>
-      <c r="AA5">
+      <c r="AG5">
         <v>5.7141323247819802</v>
       </c>
-      <c r="AB5">
+      <c r="AH5">
         <v>5.2550743878645196</v>
       </c>
-      <c r="AC5">
+      <c r="AI5">
         <v>4.2537352611212702</v>
       </c>
-      <c r="AD5">
+      <c r="AJ5">
         <v>3.5643218213244099</v>
       </c>
-      <c r="AE5">
+      <c r="AK5">
         <v>3.57087778275891</v>
       </c>
-      <c r="AF5">
+      <c r="AL5">
         <v>4.2854538483957398</v>
       </c>
-      <c r="AG5">
+      <c r="AM5">
         <v>2.3859583862679399</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1495,49 +2719,65 @@
         <v>0</v>
       </c>
       <c r="T6">
+        <v>0.05</v>
+      </c>
+      <c r="U6">
+        <v>6.6738</v>
+      </c>
+      <c r="V6">
+        <v>7.03545334536211</v>
+      </c>
+      <c r="W6">
+        <v>2.1590621317511798</v>
+      </c>
+      <c r="Y6">
         <v>0</v>
       </c>
-      <c r="U6">
+      <c r="Z6">
+        <f>AA4</f>
+        <v>6.67380003495549</v>
+      </c>
+      <c r="AA6">
         <v>7.67380003495549</v>
       </c>
-      <c r="V6">
+      <c r="AB6">
         <v>7.2474109076959499</v>
       </c>
-      <c r="W6">
+      <c r="AC6">
         <v>4.7626933775874196</v>
       </c>
-      <c r="X6">
+      <c r="AD6">
         <v>8.1712191184042204</v>
       </c>
-      <c r="Y6">
+      <c r="AE6">
         <v>6.0050443175702704</v>
       </c>
-      <c r="Z6">
+      <c r="AF6">
         <v>4.9698724614848802</v>
       </c>
-      <c r="AA6">
+      <c r="AG6">
         <v>5.7141323247819802</v>
       </c>
-      <c r="AB6">
+      <c r="AH6">
         <v>5.2550743878645196</v>
       </c>
-      <c r="AC6">
+      <c r="AI6">
         <v>4.2537352611212702</v>
       </c>
-      <c r="AD6">
+      <c r="AJ6">
         <v>3.5643218213244099</v>
       </c>
-      <c r="AE6">
+      <c r="AK6">
         <v>0.28740613307998297</v>
       </c>
-      <c r="AF6">
+      <c r="AL6">
         <v>1.06194522096639</v>
       </c>
-      <c r="AG6">
+      <c r="AM6">
         <v>-32.173267885151198</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1593,49 +2833,64 @@
         <v>0</v>
       </c>
       <c r="T7">
+        <v>0.1</v>
+      </c>
+      <c r="U7">
+        <v>6.6738</v>
+      </c>
+      <c r="V7">
+        <v>6.3655808114669297</v>
+      </c>
+      <c r="W7">
+        <v>2.3859583862679399</v>
+      </c>
+      <c r="Y7">
         <v>0.01</v>
       </c>
-      <c r="U7">
+      <c r="Z7">
+        <v>6.6738</v>
+      </c>
+      <c r="AA7">
         <v>7.5485170000440798</v>
       </c>
-      <c r="V7">
+      <c r="AB7">
         <v>7.1308575036950304</v>
       </c>
-      <c r="W7">
+      <c r="AC7">
         <v>4.6725143546389001</v>
       </c>
-      <c r="X7">
+      <c r="AD7">
         <v>8.0417794582700797</v>
       </c>
-      <c r="Y7">
+      <c r="AE7">
         <v>5.8981566796366502</v>
       </c>
-      <c r="Z7">
+      <c r="AF7">
         <v>4.8884454851732704</v>
       </c>
-      <c r="AA7">
+      <c r="AG7">
         <v>5.6081210813416504</v>
       </c>
-      <c r="AB7">
+      <c r="AH7">
         <v>5.1553081213534702</v>
       </c>
-      <c r="AC7">
+      <c r="AI7">
         <v>4.1752744710968104</v>
       </c>
-      <c r="AD7">
+      <c r="AJ7">
         <v>3.5026162369317402</v>
       </c>
-      <c r="AE7">
+      <c r="AK7">
         <v>3.2062006456169501</v>
       </c>
-      <c r="AF7">
+      <c r="AL7">
         <v>3.9689795451668699</v>
       </c>
-      <c r="AG7">
+      <c r="AM7">
         <v>1.0476433937935099</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1691,49 +2946,64 @@
         <v>0</v>
       </c>
       <c r="T8">
+        <v>0.15</v>
+      </c>
+      <c r="U8">
+        <v>6.6738</v>
+      </c>
+      <c r="V8">
+        <v>5.6610467081671398</v>
+      </c>
+      <c r="W8">
+        <v>2.3427504047485899</v>
+      </c>
+      <c r="Y8">
         <v>0.02</v>
       </c>
-      <c r="U8">
+      <c r="Z8">
+        <v>6.6738</v>
+      </c>
+      <c r="AA8">
         <v>7.4220621526490298</v>
       </c>
-      <c r="V8">
+      <c r="AB8">
         <v>7.0132213128289198</v>
       </c>
-      <c r="W8">
+      <c r="AC8">
         <v>4.5822079960665798</v>
       </c>
-      <c r="X8">
+      <c r="AD8">
         <v>7.9111264571624504</v>
       </c>
-      <c r="Y8">
+      <c r="AE8">
         <v>5.7902859788119203</v>
       </c>
-      <c r="Z8">
+      <c r="AF8">
         <v>4.8062926180894001</v>
       </c>
-      <c r="AA8">
+      <c r="AG8">
         <v>5.5011423372761303</v>
       </c>
-      <c r="AB8">
+      <c r="AH8">
         <v>5.05494027401721</v>
       </c>
-      <c r="AC8">
+      <c r="AI8">
         <v>4.0962341073498703</v>
       </c>
-      <c r="AD8">
+      <c r="AJ8">
         <v>3.44056809936595</v>
       </c>
-      <c r="AE8">
+      <c r="AK8">
         <v>3.42464986403444</v>
       </c>
-      <c r="AF8">
+      <c r="AL8">
         <v>4.17555540499961</v>
       </c>
-      <c r="AG8">
+      <c r="AM8">
         <v>1.57916103982498</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1789,49 +3059,64 @@
         <v>0</v>
       </c>
       <c r="T9">
+        <v>0.2</v>
+      </c>
+      <c r="U9">
+        <v>6.6738</v>
+      </c>
+      <c r="V9">
+        <v>4.9182543440563</v>
+      </c>
+      <c r="W9">
+        <v>2.1757202916343599</v>
+      </c>
+      <c r="Y9">
         <v>0.03</v>
       </c>
-      <c r="U9">
+      <c r="Z9">
+        <v>6.6738</v>
+      </c>
+      <c r="AA9">
         <v>7.2944144585545603</v>
       </c>
-      <c r="V9">
+      <c r="AB9">
         <v>6.8944835638947204</v>
       </c>
-      <c r="W9">
+      <c r="AC9">
         <v>4.4917212259734498</v>
       </c>
-      <c r="X9">
+      <c r="AD9">
         <v>7.7792380912773096</v>
       </c>
-      <c r="Y9">
+      <c r="AE9">
         <v>5.6814151470938103</v>
       </c>
-      <c r="Z9">
+      <c r="AF9">
         <v>4.7234018604776704</v>
       </c>
-      <c r="AA9">
+      <c r="AG9">
         <v>5.3931789175046703</v>
       </c>
-      <c r="AB9">
+      <c r="AH9">
         <v>4.9539458326328498</v>
       </c>
-      <c r="AC9">
+      <c r="AI9">
         <v>4.0166090849457303</v>
       </c>
-      <c r="AD9">
+      <c r="AJ9">
         <v>3.37817790848319</v>
       </c>
-      <c r="AE9">
+      <c r="AK9">
         <v>3.51756463228529</v>
       </c>
-      <c r="AF9">
+      <c r="AL9">
         <v>4.25648030743913</v>
       </c>
-      <c r="AG9">
+      <c r="AM9">
         <v>1.8600835712280199</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1887,49 +3172,64 @@
         <v>0</v>
       </c>
       <c r="T10">
+        <v>0.25</v>
+      </c>
+      <c r="U10">
+        <v>6.6738</v>
+      </c>
+      <c r="V10">
+        <v>4.1332967870551798</v>
+      </c>
+      <c r="W10">
+        <v>1.9301441579746501</v>
+      </c>
+      <c r="Y10">
         <v>0.04</v>
       </c>
-      <c r="U10">
+      <c r="Z10">
+        <v>6.6738</v>
+      </c>
+      <c r="AA10">
         <v>7.16555227889293</v>
       </c>
-      <c r="V10">
+      <c r="AB10">
         <v>6.77462499162682</v>
       </c>
-      <c r="W10">
+      <c r="AC10">
         <v>4.4009987593486999</v>
       </c>
-      <c r="X10">
+      <c r="AD10">
         <v>7.6460916928932701</v>
       </c>
-      <c r="Y10">
+      <c r="AE10">
         <v>5.5715267957473804</v>
       </c>
-      <c r="Z10">
+      <c r="AF10">
         <v>4.6397609163829197</v>
       </c>
-      <c r="AA10">
+      <c r="AG10">
         <v>5.2842132884111601</v>
       </c>
-      <c r="AB10">
+      <c r="AH10">
         <v>4.8522989795031597</v>
       </c>
-      <c r="AC10">
+      <c r="AI10">
         <v>3.9363943312215599</v>
       </c>
-      <c r="AD10">
+      <c r="AJ10">
         <v>3.3154461809935301</v>
       </c>
-      <c r="AE10">
+      <c r="AK10">
         <v>3.5586106651193701</v>
       </c>
-      <c r="AF10">
+      <c r="AL10">
         <v>4.2854173842617396</v>
       </c>
-      <c r="AG10">
+      <c r="AM10">
         <v>2.0379719183977398</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1985,49 +3285,64 @@
         <v>0</v>
       </c>
       <c r="T11">
+        <v>0.3</v>
+      </c>
+      <c r="U11">
+        <v>6.6738</v>
+      </c>
+      <c r="V11">
+        <v>3.3028752535497898</v>
+      </c>
+      <c r="W11">
+        <v>1.6262113081887599</v>
+      </c>
+      <c r="Y11">
         <v>0.05</v>
       </c>
-      <c r="U11">
+      <c r="Z11">
+        <v>6.6738</v>
+      </c>
+      <c r="AA11">
         <v>7.03545334536211</v>
       </c>
-      <c r="V11">
+      <c r="AB11">
         <v>6.6536258192164901</v>
       </c>
-      <c r="W11">
+      <c r="AC11">
         <v>4.3099836954243003</v>
       </c>
-      <c r="X11">
+      <c r="AD11">
         <v>7.5116639236794098</v>
       </c>
-      <c r="Y11">
+      <c r="AE11">
         <v>5.4606032278796199</v>
       </c>
-      <c r="Z11">
+      <c r="AF11">
         <v>4.5553572021240898</v>
       </c>
-      <c r="AA11">
+      <c r="AG11">
         <v>5.1742275722085704</v>
       </c>
-      <c r="AB11">
+      <c r="AH11">
         <v>4.7499731857287104</v>
       </c>
-      <c r="AC11">
+      <c r="AI11">
         <v>3.8555847904061999</v>
       </c>
-      <c r="AD11">
+      <c r="AJ11">
         <v>3.2523734366970598</v>
       </c>
-      <c r="AE11">
+      <c r="AK11">
         <v>3.57087778275891</v>
       </c>
-      <c r="AF11">
+      <c r="AL11">
         <v>4.2854538483957398</v>
       </c>
-      <c r="AG11">
+      <c r="AM11">
         <v>2.1590621317511798</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2083,49 +3398,64 @@
         <v>0</v>
       </c>
       <c r="T12">
+        <v>0.4</v>
+      </c>
+      <c r="U12">
+        <v>6.6738</v>
+      </c>
+      <c r="V12">
+        <v>1.5289585224773701</v>
+      </c>
+      <c r="W12">
+        <v>0.88474406175630105</v>
+      </c>
+      <c r="Y12">
         <v>0.1</v>
       </c>
-      <c r="U12">
+      <c r="Z12">
+        <v>6.6738</v>
+      </c>
+      <c r="AA12">
         <v>6.3655808114669297</v>
       </c>
-      <c r="V12">
+      <c r="AB12">
         <v>6.0307907796862397</v>
       </c>
-      <c r="W12">
+      <c r="AC12">
         <v>3.84848407511618</v>
       </c>
-      <c r="X12">
+      <c r="AD12">
         <v>6.8194372593163903</v>
       </c>
-      <c r="Y12">
+      <c r="AE12">
         <v>4.88981883387663</v>
       </c>
-      <c r="Z12">
+      <c r="AF12">
         <v>4.1214388562648798</v>
       </c>
-      <c r="AA12">
+      <c r="AG12">
         <v>4.6083512305505403</v>
       </c>
-      <c r="AB12">
+      <c r="AH12">
         <v>4.2271963004404496</v>
       </c>
-      <c r="AC12">
+      <c r="AI12">
         <v>3.4424404198551901</v>
       </c>
-      <c r="AD12">
+      <c r="AJ12">
         <v>2.9319107944774001</v>
       </c>
-      <c r="AE12">
+      <c r="AK12">
         <v>3.4368452808538001</v>
       </c>
-      <c r="AF12">
+      <c r="AL12">
         <v>4.0883512166244804</v>
       </c>
-      <c r="AG12">
+      <c r="AM12">
         <v>2.3859583862679399</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2181,49 +3511,64 @@
         <v>0</v>
       </c>
       <c r="T13">
+        <v>0.5</v>
+      </c>
+      <c r="U13">
+        <v>6.6738</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
         <v>0.15</v>
       </c>
-      <c r="U13">
+      <c r="Z13">
+        <v>6.6738</v>
+      </c>
+      <c r="AA13">
         <v>5.6610467081671398</v>
       </c>
-      <c r="V13">
+      <c r="AB13">
         <v>5.3761513825063201</v>
       </c>
-      <c r="W13">
+      <c r="AC13">
         <v>3.3711072727515399</v>
       </c>
-      <c r="X13">
+      <c r="AD13">
         <v>6.0912421334459204</v>
       </c>
-      <c r="Y13">
+      <c r="AE13">
         <v>4.2903721149723602</v>
       </c>
-      <c r="Z13">
+      <c r="AF13">
         <v>3.6664464064925002</v>
       </c>
-      <c r="AA13">
+      <c r="AG13">
         <v>4.0141596467901204</v>
       </c>
-      <c r="AB13">
+      <c r="AH13">
         <v>3.6832892477536299</v>
       </c>
-      <c r="AC13">
+      <c r="AI13">
         <v>3.0136954672036298</v>
       </c>
-      <c r="AD13">
+      <c r="AJ13">
         <v>2.6029704080938201</v>
       </c>
-      <c r="AE13">
+      <c r="AK13">
         <v>3.15686956897716</v>
       </c>
-      <c r="AF13">
+      <c r="AL13">
         <v>3.74188305197716</v>
       </c>
-      <c r="AG13">
+      <c r="AM13">
         <v>2.3427504047485899</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2278,202 +3623,199 @@
       <c r="R14">
         <v>0</v>
       </c>
-      <c r="T14">
+      <c r="Y14">
         <v>0.2</v>
       </c>
-      <c r="U14">
+      <c r="Z14">
+        <v>6.6738</v>
+      </c>
+      <c r="AA14">
         <v>4.9182543440563</v>
       </c>
-      <c r="V14">
+      <c r="AB14">
         <v>4.6865803631812799</v>
       </c>
-      <c r="W14">
+      <c r="AC14">
         <v>2.8717356983657001</v>
       </c>
-      <c r="X14">
+      <c r="AD14">
         <v>5.3232547478821104</v>
       </c>
-      <c r="Y14">
+      <c r="AE14">
         <v>3.6599708694117701</v>
       </c>
-      <c r="Z14">
+      <c r="AF14">
         <v>3.1887595428260398</v>
       </c>
-      <c r="AA14">
+      <c r="AG14">
         <v>3.3894120855109802</v>
       </c>
-      <c r="AB14">
+      <c r="AH14">
         <v>3.1151478099125498</v>
       </c>
-      <c r="AC14">
+      <c r="AI14">
         <v>2.5688441851646302</v>
       </c>
-      <c r="AD14">
+      <c r="AJ14">
         <v>2.26549172732047</v>
       </c>
-      <c r="AE14">
+      <c r="AK14">
         <v>2.8032429501406502</v>
       </c>
-      <c r="AF14">
+      <c r="AL14">
         <v>3.3180945247367601</v>
       </c>
-      <c r="AG14">
+      <c r="AM14">
         <v>2.1757202916343599</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="T15">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="Y15">
         <v>0.25</v>
       </c>
-      <c r="U15">
+      <c r="Z15">
+        <v>6.6738</v>
+      </c>
+      <c r="AA15">
         <v>4.1332967870551798</v>
       </c>
-      <c r="V15">
+      <c r="AB15">
         <v>3.9586416260558299</v>
       </c>
-      <c r="W15">
+      <c r="AC15">
         <v>2.34642785810804</v>
       </c>
-      <c r="X15">
+      <c r="AD15">
         <v>4.5111349213020802</v>
       </c>
-      <c r="Y15">
+      <c r="AE15">
         <v>2.9968531737714801</v>
       </c>
-      <c r="Z15">
+      <c r="AF15">
         <v>2.6873280924119798</v>
       </c>
-      <c r="AA15">
+      <c r="AG15">
         <v>2.7327781498250601</v>
       </c>
-      <c r="AB15">
+      <c r="AH15">
         <v>2.5213328825715502</v>
       </c>
-      <c r="AC15">
+      <c r="AI15">
         <v>2.1077616160518202</v>
       </c>
-      <c r="AD15">
+      <c r="AJ15">
         <v>1.9191994688827201</v>
       </c>
-      <c r="AE15">
+      <c r="AK15">
         <v>2.3982855754440102</v>
       </c>
-      <c r="AF15">
+      <c r="AL15">
         <v>2.8392207577974098</v>
       </c>
-      <c r="AG15">
+      <c r="AM15">
         <v>1.9301441579746501</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="T16">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="Y16">
         <v>0.3</v>
       </c>
-      <c r="U16">
+      <c r="Z16">
+        <v>6.6738</v>
+      </c>
+      <c r="AA16">
         <v>3.3028752535497898</v>
       </c>
-      <c r="V16">
+      <c r="AB16">
         <v>3.1890346438699</v>
       </c>
-      <c r="W16">
+      <c r="AC16">
         <v>1.79560967316271</v>
       </c>
-      <c r="X16">
+      <c r="AD16">
         <v>3.6504047083198001</v>
       </c>
-      <c r="Y16">
+      <c r="AE16">
         <v>2.3012370795944799</v>
       </c>
-      <c r="Z16">
+      <c r="AF16">
         <v>2.1628442776125798</v>
       </c>
-      <c r="AA16">
+      <c r="AG16">
         <v>2.0462454548214799</v>
       </c>
-      <c r="AB16">
+      <c r="AH16">
         <v>1.9051122932107001</v>
       </c>
-      <c r="AC16">
+      <c r="AI16">
         <v>1.63170126921937</v>
       </c>
-      <c r="AD16">
+      <c r="AJ16">
         <v>1.5634217851696699</v>
       </c>
-      <c r="AE16">
+      <c r="AK16">
         <v>1.9533074198403599</v>
       </c>
-      <c r="AF16">
+      <c r="AL16">
         <v>2.3167239104072301</v>
       </c>
-      <c r="AG16">
+      <c r="AM16">
         <v>1.6262113081887599</v>
       </c>
     </row>
-    <row r="17" spans="20:33" x14ac:dyDescent="0.3">
-      <c r="T17">
+    <row r="17" spans="25:39" x14ac:dyDescent="0.3">
+      <c r="Y17">
         <v>0.4</v>
       </c>
-      <c r="U17">
+      <c r="Z17">
+        <v>6.6738</v>
+      </c>
+      <c r="AA17">
         <v>1.5289585224773701</v>
       </c>
-      <c r="V17">
+      <c r="AB17">
         <v>1.5303669018517101</v>
       </c>
-      <c r="W17">
+      <c r="AC17">
         <v>0.68281104405624404</v>
       </c>
-      <c r="X17">
+      <c r="AD17">
         <v>1.7823548510485001</v>
       </c>
-      <c r="Y17">
+      <c r="AE17">
         <v>0.86436054549950803</v>
       </c>
-      <c r="Z17">
+      <c r="AF17">
         <v>1.06924553589076</v>
       </c>
-      <c r="AA17">
+      <c r="AG17">
         <v>0.66940622078837497</v>
       </c>
-      <c r="AB17">
+      <c r="AH17">
         <v>0.69238106637728702</v>
       </c>
-      <c r="AC17">
+      <c r="AI17">
         <v>0.67346221769737002</v>
       </c>
-      <c r="AD17">
+      <c r="AJ17">
         <v>0.81700725806164298</v>
       </c>
-      <c r="AE17">
+      <c r="AK17">
         <v>0.98673545715894995</v>
       </c>
-      <c r="AF17">
+      <c r="AL17">
         <v>1.1842830131789599</v>
       </c>
-      <c r="AG17">
+      <c r="AM17">
         <v>0.88474406175630105</v>
       </c>
     </row>
-    <row r="18" spans="20:33" x14ac:dyDescent="0.3">
-      <c r="T18">
+    <row r="18" spans="25:39" x14ac:dyDescent="0.3">
+      <c r="Y18">
         <v>0.5</v>
       </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
       <c r="Z18">
-        <v>0</v>
+        <v>6.6738</v>
       </c>
       <c r="AA18">
         <v>0</v>
@@ -2496,21 +3838,27 @@
       <c r="AG18">
         <v>0</v>
       </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="U4:U18">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V4:V18">
+  <conditionalFormatting sqref="AA4:AA18">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2522,7 +3870,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W4:W18">
+  <conditionalFormatting sqref="AB4:AB18">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2534,7 +3882,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X4:X18">
+  <conditionalFormatting sqref="AC4:AC18">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2546,7 +3894,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y4:Y18">
+  <conditionalFormatting sqref="AD4:AD18">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2558,7 +3906,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z4:Z18">
+  <conditionalFormatting sqref="AE4:AE18">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -2570,7 +3918,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA4:AA18">
+  <conditionalFormatting sqref="AF4:AF18">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2582,7 +3930,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB4:AB18">
+  <conditionalFormatting sqref="AG4:AG18">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -2594,7 +3942,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC4:AC18">
+  <conditionalFormatting sqref="AH4:AH18">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2606,7 +3954,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD4:AD18">
+  <conditionalFormatting sqref="AI4:AI18">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -2618,6 +3966,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AJ4:AJ18">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V5:V13">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>